--- a/testreport/TestNG_results.xlsx
+++ b/testreport/TestNG_results.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Test Name</t>
   </si>
@@ -32,16 +32,13 @@
     <t>loginSuccessfull</t>
   </si>
   <si>
-    <t>FAIL</t>
+    <t>PASS</t>
   </si>
   <si>
-    <t>Expected condition failed: waiting for visibility of Proxy element for: DefaultElementLocator 'By.xpath: (//div[@class='oxd-select-text'])[1]' (tried for 10 second(s) with 500 milliseconds interval)</t>
+    <t>No Error</t>
   </si>
   <si>
-    <t>31690ms</t>
-  </si>
-  <si>
-    <t>C:\Users\Dell\Desktop\POM_Assignment\SeleniumTNGAssign/testreport/loginSuccessfull.png</t>
+    <t>19962ms</t>
   </si>
 </sst>
 </file>
@@ -122,9 +119,7 @@
       <c r="D2" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="E2" t="s" s="0">
-        <v>9</v>
-      </c>
+      <c r="E2" s="0"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
